--- a/medicine/Hématologie/Hémopathie/Hémopathie.xlsx
+++ b/medicine/Hématologie/Hémopathie/Hémopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mopathie</t>
+          <t>Hémopathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémopathie désigne une catégorie générale de maladies du sang : les maladies affectant les composants du sang (cellules sanguines telles qu'érythrocytes, leucocytes et plaquettes), d'autres composants (ex. : l'hémoglobine, protéines sanguines…) et celles qui affectent la production du sang ou ses mécanisme (coagulation, etc.).
 Le terme hémopathie est né au XIXe siècle et est composé des racines grecques hémo = sang et de -pathie, tiré du grec pathos, « ce qu'on éprouve ».
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mopathie</t>
+          <t>Hémopathie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Classification des maladies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue :
 d'une part les hémopathies bénignes (par exemple par carences vitaminiques, anomalies de l'hémoglobine ou hémoglobinopathie…) dont la classification proposée reprend en grande partie ce plan ;
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mopathie</t>
+          <t>Hémopathie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Étiologie des problèmes hématologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hémoglobinopathies (anomalie de l'hémoglobine pouvant entrainer une anémie)
 Défaut de production
@@ -605,7 +621,7 @@
 par consommation
 Purpura thrombotique thrombocytopénique
 CIVD
-Augmentation des numérations de cellules (hypercytose, pléiocytose ou pléocytose[1])
+Augmentation des numérations de cellules (hypercytose, pléiocytose ou pléocytose)
 Polycythemia vera (augmentation du nombre de cellules en général)
 polyglobulie (augmentation du nombre d'érythrocytes), primitive ou secondaire.
 Leucocytose (augmentation du nombre de leucocytes)
